--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -442,296 +442,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG16"/>
+  <dimension ref="B4:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="13" width="3.5703125" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" customWidth="1"/>
-    <col min="15" max="29" width="3.5703125" customWidth="1"/>
-    <col min="30" max="30" width="3.42578125" customWidth="1"/>
-    <col min="31" max="33" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="16" max="30" width="3.5703125" customWidth="1"/>
+    <col min="31" max="31" width="3.42578125" customWidth="1"/>
+    <col min="32" max="34" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
+      <c r="C4" s="7">
         <v>43313</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7">
         <v>43344</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="7">
         <v>43374</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="7">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7">
         <v>43405</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="7">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="7">
         <v>43435</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="7">
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="7">
         <v>43466</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="7">
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="7">
         <v>43497</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="7">
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="7">
         <v>43525</v>
       </c>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="1">
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J5" s="1">
         <v>4</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L5" s="1">
         <v>2</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M5" s="1">
         <v>3</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N5" s="1">
         <v>4</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O5" s="1">
         <v>1</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P5" s="1">
         <v>2</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q5" s="1">
         <v>3</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R5" s="1">
         <v>4</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S5" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T5" s="1">
         <v>2</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U5" s="1">
         <v>3</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V5" s="1">
         <v>4</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W5" s="1">
         <v>1</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X5" s="1">
         <v>2</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y5" s="1">
         <v>3</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z5" s="1">
         <v>4</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA5" s="1">
         <v>1</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB5" s="1">
         <v>2</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC5" s="1">
         <v>3</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD5" s="1">
         <v>4</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE5" s="1">
         <v>1</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF5" s="1">
         <v>2</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG5" s="1">
         <v>3</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -757,20 +645,20 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="AH6" s="2"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -794,20 +682,20 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
+      <c r="AH7" s="2"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -831,26 +719,26 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
+      <c r="AH8" s="2"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -868,12 +756,12 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
+      <c r="AH9" s="2"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -881,13 +769,13 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -905,12 +793,12 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="AH10" s="2"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -919,15 +807,15 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -942,12 +830,12 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
+      <c r="AH11" s="2"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -956,20 +844,20 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -979,12 +867,12 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
+      <c r="AH12" s="2"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -993,21 +881,21 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -1016,12 +904,12 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2"/>
+      <c r="AH13" s="2"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1034,31 +922,31 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="AH14" s="2"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1077,25 +965,25 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2"/>
+      <c r="AH15" s="2"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1118,27 +1006,139 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="3"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="2"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
